--- a/INSS_Calculo_Dinamico.xlsx
+++ b/INSS_Calculo_Dinamico.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRLuanaPAm\Music\SIMULADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB6ECC-4012-4E9C-8493-7B32125CEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872F5989-52E4-44EC-BBA1-3E8289889167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo INSS" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cálculo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -353,31 +353,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +818,7 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="10">
@@ -850,7 +850,7 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="H6" s="10">
         <v>4</v>
       </c>
@@ -889,37 +889,37 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:12" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
@@ -1145,12 +1145,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD61462-5801-43DE-B180-B82D9134EA10}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9">
-        <v>4200</v>
+        <v>4040</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1258,14 +1258,14 @@
       </c>
       <c r="B7" s="9">
         <f>IF(B1&gt;4000.04,IF(B1&gt;7786.02,7786.02-4000.04,B1-4000.04),0)</f>
-        <v>199.96000000000004</v>
+        <v>39.960000000000036</v>
       </c>
       <c r="C7" s="9">
         <v>14</v>
       </c>
       <c r="D7" s="9">
         <f>B7*C7/100</f>
-        <v>27.994400000000006</v>
+        <v>5.5944000000000047</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D8" s="16">
         <f>SUM(D4:D7)</f>
-        <v>406.81549999999999</v>
+        <v>384.41550000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
@@ -1352,16 +1352,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
